--- a/Batch/16/Curriculum/Day_8_Date_functions.xlsx
+++ b/Batch/16/Curriculum/Day_8_Date_functions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\15\Curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\16\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C256EE-784A-4781-B7B7-2239F988462A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEC0FE-C314-4349-AC18-3EE62F1565C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="C7" s="20">
         <f ca="1">NOW() +B3</f>
-        <v>45679.918603240738</v>
+        <v>45727.72162222222</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>32</v>
@@ -7514,7 +7514,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7618,19 +7618,23 @@
     <row r="13" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
       <c r="D13">
-        <f>NETWORKDAYS(B4,C4,D4:D6)</f>
-        <v>68</v>
+        <f>NETWORKDAYS(B4,C4)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12"/>
       <c r="D14">
-        <f>NETWORKDAYS.INTL(B4,C4,2,D4:D6)</f>
-        <v>69</v>
+        <f>NETWORKDAYS(B4,C4,D4:D6)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="12"/>
+      <c r="D15">
+        <f>NETWORKDAYS.INTL(B4,C4,11,D4:D6)</f>
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
